--- a/Analyses/PopGen_Stats.xlsx
+++ b/Analyses/PopGen_Stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Pohang</t>
   </si>
@@ -66,22 +66,62 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Namhae 2015</t>
+  </si>
+  <si>
+    <t>Geoje 2015</t>
+  </si>
+  <si>
+    <t>Pohang 2015</t>
+  </si>
+  <si>
+    <t>Yellow Sea 2016</t>
+  </si>
+  <si>
+    <t>Boryeong 2007</t>
+  </si>
+  <si>
+    <t>Geoje 2014</t>
+  </si>
+  <si>
+    <t>Sok / Muk 2015-16</t>
+  </si>
+  <si>
+    <t>Pairwise Fst Values (order based on genepop file)</t>
+  </si>
+  <si>
+    <t>Pairwise Fst Values (ordered by region, West-South-East)</t>
+  </si>
+  <si>
+    <t>Fis statistic</t>
+  </si>
+  <si>
+    <t>Boryeong</t>
+  </si>
+  <si>
+    <t>Hardy-Weinberg Equilibrium, Fis in each Population</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Individuals with &gt;50% Missing Genotypes Removed</t>
+  </si>
+  <si>
+    <t>All Individuals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,16 +134,81 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -111,14 +216,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,135 +736,816 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2.2309999999999999E-3</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="25">
         <v>2015</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.22586999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.24158589999999999</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="26">
+        <v>0.2256148</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.24061489999999999</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4" s="26">
+        <v>-5.3100000000000001E-2</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4.0540000000000001E-5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2.5669999999999998E-3</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B5" s="25">
         <v>2015</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.23771829999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.2731172</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C5" s="26">
+        <v>0.23757139999999999</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.27285160000000003</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F5" s="26">
+        <v>-0.13850000000000001</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4.1640000000000003E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4.8680000000000001E-2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>3.7130000000000003E-2</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="25">
         <v>2015</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.2312717</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.26377</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C6" s="26">
+        <v>0.23176859999999999</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.26169350000000002</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F6" s="26">
+        <v>-9.8299999999999998E-2</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5.6340000000000001E-2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4.3889999999999998E-2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="25">
         <v>2016</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.2190809</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C7" s="26">
+        <v>0.21759300000000001</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="26">
+        <v>-5.4399999999999997E-2</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6.097E-3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>8.3129999999999992E-3</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7.4819999999999999E-3</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5.5809999999999998E-2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5.9119999999999999E-2</v>
+      </c>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="25">
+        <v>2007</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.1746654</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9">
+        <v>6.8290000000000003E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>8.3030000000000007E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>6.8729999999999999E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>6.003E-2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>3.4880000000000001E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>7.8109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B9" s="25">
         <v>2014</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.21903010000000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.22213630000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.9659999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C9" s="26">
+        <v>0.2187258</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.22134899999999999</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1.1860000000000001E-2</v>
+      </c>
+      <c r="F9" s="26">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C10" s="26">
         <v>0.6896795</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D10" s="26" t="s">
         <v>13</v>
       </c>
+      <c r="E10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="I12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25">
+        <v>2015</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="H14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4.8680000000000001E-2</v>
+      </c>
+      <c r="J14" s="17">
+        <v>5.6340000000000001E-2</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="H15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5.5809999999999998E-2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>5.9119999999999999E-2</v>
+      </c>
+      <c r="K15" s="17">
+        <v>8.3129999999999992E-3</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="25">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="H16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3.7130000000000003E-2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>4.3889999999999998E-2</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2.5669999999999998E-3</v>
+      </c>
+      <c r="L16" s="17">
+        <v>7.4819999999999999E-3</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="H17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9">
+        <v>4.1640000000000003E-2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2.2309999999999999E-3</v>
+      </c>
+      <c r="L17" s="9">
+        <v>6.097E-3</v>
+      </c>
+      <c r="M17" s="18">
+        <v>4.0540000000000001E-5</v>
+      </c>
+      <c r="N17" s="21"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="25">
+        <v>2007</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="H18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="9">
+        <v>6.003E-2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>3.4880000000000001E-2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>8.3030000000000007E-2</v>
+      </c>
+      <c r="L18" s="9">
+        <v>7.8109999999999999E-2</v>
+      </c>
+      <c r="M18" s="9">
+        <v>6.8729999999999999E-2</v>
+      </c>
+      <c r="N18" s="6">
+        <v>6.8290000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="25">
+        <v>2014</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3:I8 J4:J8 K5:K8 L6:L8 M7:M8 N8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I18 J14:J18 K15:K18 L16:L18 M17:M18 N18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
